--- a/backup/nhankhau.xlsx
+++ b/backup/nhankhau.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>IDNhanKhau</t>
   </si>
@@ -53,70 +53,79 @@
     <t>QueQuan</t>
   </si>
   <si>
+    <t>Cháu chắt</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Lâm</t>
+  </si>
+  <si>
+    <t>(Chưa nhập)</t>
+  </si>
+  <si>
+    <t>Sinh viên</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Kinh</t>
+  </si>
+  <si>
+    <t>Đồng Hợp, Quỳ Hợp, Nghệ An, Việt Nam</t>
+  </si>
+  <si>
     <t>Chủ hộ</t>
   </si>
   <si>
-    <t>Nguyễn Hoàng Lâm</t>
-  </si>
-  <si>
-    <t>(Chưa nhập)</t>
-  </si>
-  <si>
-    <t>Sinh viên</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>Kinh</t>
-  </si>
-  <si>
-    <t>Đồng Hợp, Quỳ Hợp, Nghệ An, Việt Nam</t>
-  </si>
-  <si>
-    <t>Người thầy</t>
+    <t>Nguyễn Trọng Tuấn</t>
+  </si>
+  <si>
+    <t>Quái vật</t>
+  </si>
+  <si>
+    <t>Vợ/Chồng</t>
   </si>
   <si>
     <t>Nguyễn Minh Quang</t>
   </si>
   <si>
+    <t>Đào Quốc Tuấn</t>
+  </si>
+  <si>
+    <t>Bố mẹ</t>
+  </si>
+  <si>
+    <t>Vương Đình Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Sỹ Trọng</t>
+  </si>
+  <si>
+    <t>1/1/0001 12:00:00 AM</t>
+  </si>
+  <si>
+    <t>Nguyễn Mạnh Tuấn</t>
+  </si>
+  <si>
+    <t>202320222021</t>
+  </si>
+  <si>
+    <t>Giảng viên</t>
+  </si>
+  <si>
+    <t>Greatest of all time</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>Ca sĩ</t>
+  </si>
+  <si>
     <t>Nữ</t>
   </si>
   <si>
-    <t>Đào Quốc Tuấn</t>
-  </si>
-  <si>
-    <t>Vương Đình Minh</t>
-  </si>
-  <si>
-    <t>Nguyễn Sỹ Trọng</t>
-  </si>
-  <si>
-    <t>1/1/0001 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>Cháu chắt</t>
-  </si>
-  <si>
-    <t>Nguyễn Mạnh Tuấn</t>
-  </si>
-  <si>
-    <t>202320222021</t>
-  </si>
-  <si>
-    <t>Giảng viên</t>
-  </si>
-  <si>
-    <t>Vợ/Chồng</t>
-  </si>
-  <si>
-    <t>Greatest of all time</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Ca sĩ</t>
+    <t>Con cái</t>
   </si>
   <si>
     <t>Nguyễn Minh A</t>
@@ -129,6 +138,84 @@
   </si>
   <si>
     <t>Thanh Nhàn, Hai Bà Trưng, Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>Trịnh Văn Chiến</t>
+  </si>
+  <si>
+    <t>1234567894554</t>
+  </si>
+  <si>
+    <t>(Chưa điền)</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Thanh Bình</t>
+  </si>
+  <si>
+    <t>23456789</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Bình</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>A B C</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Vương Đình Lâm</t>
+  </si>
+  <si>
+    <t>Tân Kỳ, Tân Kỳ, Nghệ An, Việt Nam</t>
+  </si>
+  <si>
+    <t>Đỗ Đức Mạnh</t>
+  </si>
+  <si>
+    <t>111111111111</t>
+  </si>
+  <si>
+    <t>Nghĩa Thuận, Thái Hoà, Nghệ An, Việt Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Thành</t>
+  </si>
+  <si>
+    <t>1237562345</t>
+  </si>
+  <si>
+    <t>Nậm Chua, Nậm Pồ, Điện Biên, Việt Nam</t>
+  </si>
+  <si>
+    <t>Phùng Cảnh Châu</t>
+  </si>
+  <si>
+    <t>12345123</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hiếu</t>
+  </si>
+  <si>
+    <t>17248183838</t>
+  </si>
+  <si>
+    <t>Rapper</t>
+  </si>
+  <si>
+    <t>Mường</t>
+  </si>
+  <si>
+    <t>Avenue Victor Hugo, Paris, France</t>
   </si>
   <si>
     <t>https://www.e-iceblue.cn/Buy/Spire.XLS.JAVA.html</t>
@@ -638,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -647,9 +734,9 @@
     <col min="1" max="1" width="11.57421875" widthPt="60.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.57421875" widthPt="50.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28125" widthPt="59.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" widthPt="95.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.421875" widthPt="102" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.57421875" widthPt="102.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28125" widthPt="69.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28125" widthPt="75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.00390625" widthPt="73.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.57421875" widthPt="60.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.8515625" widthPt="204" bestFit="1" customWidth="1"/>
@@ -721,7 +808,7 @@
     </row>
     <row r="3" spans="1:10" ht="12.75">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -733,19 +820,19 @@
         <v>18</v>
       </c>
       <c r="E3" s="1">
-        <v>37725</v>
+        <v>37656</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -753,19 +840,19 @@
     </row>
     <row r="4" spans="1:10" ht="12.75">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1">
-        <v>37622</v>
+        <v>37725</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -785,19 +872,19 @@
     </row>
     <row r="5" spans="1:10" ht="12.75">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
-        <v>37821</v>
+        <v>37622</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -817,19 +904,19 @@
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>37821</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -849,31 +936,31 @@
     </row>
     <row r="7" spans="1:10" ht="12.75">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1">
-        <v>28482</v>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -881,28 +968,28 @@
     </row>
     <row r="8" spans="1:10" ht="12.75">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1">
+        <v>28482</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1">
-        <v>34702</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -913,31 +1000,348 @@
     </row>
     <row r="9" spans="1:10" ht="12.75">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="1">
+        <v>34702</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1">
-        <v>45274</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
       <c r="J9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="12.75">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45274</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="12.75">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="12.75">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="12.75">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45277</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1">
+        <v>37622</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12.75">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1">
+        <v>28791</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12.75">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12.75">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="1">
+        <v>37897</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -988,42 +1392,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
